--- a/biology/Médecine/Anticholinergique/Anticholinergique.xlsx
+++ b/biology/Médecine/Anticholinergique/Anticholinergique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un agent anticholinergique dit aussi atropinique  est une substance appartenant à une classe pharmacologique de composés qui servent à réduire les effets où l'acétylcholine joue le rôle de neuromédiateur dans le système nerveux central et le système nerveux périphérique. L'acétylcholine étant le principal neuromédiateur du système nerveux parasympathique, son blocage entraîne une augmentation du tonus sympathique.
 L'ipratropium est l'étalon de cette classe. Il est particulièrement utilisé dans les broncho-pneumopathies chroniques obstructives. Les principaux médicaments sont le bromure de tiotropium, le bromure d'ipratropium.
@@ -516,25 +528,133 @@
           <t>Effets</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Lorsqu'une quantité suffisante d'anticholinergique est en circulation dans le corps, un toxidrome (intoxication) appelé syndrome anticholinergique aigu peut se produire. Cela peut arriver accidentellement ou volontairement dans le cadre d'une consommation récréative (usage de drogues[réf. nécessaire]). Les drogues de cette classe sont généralement considérées comme peu « amusantes » par les consommateurs de drogues avertis. Parce que la plupart des usagers n'apprécient pas cette expérience, ils ne cherchent pas à la recommencer, ou très rarement. Les risques d'addiction sont faibles pour les médicaments de la classe des anticholinergiques.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsqu'une quantité suffisante d'anticholinergique est en circulation dans le corps, un toxidrome (intoxication) appelé syndrome anticholinergique aigu peut se produire. Cela peut arriver accidentellement ou volontairement dans le cadre d'une consommation récréative (usage de drogues[réf. nécessaire]). Les drogues de cette classe sont généralement considérées comme peu « amusantes » par les consommateurs de drogues avertis. Parce que la plupart des usagers n'apprécient pas cette expérience, ils ne cherchent pas à la recommencer, ou très rarement. Les risques d'addiction sont faibles pour les médicaments de la classe des anticholinergiques.
 Le syndrome anticholinergique aigu est complètement réversible et régresse lorsque le toxique a été éliminé de l'organisme. Généralement aucun traitement spécifique n'est mis en œuvre. Cependant dans des cas extrêmes, en particulier lorsque les troubles mentaux prédominent, un agent cholinergique réversible comme la physostigmine peut être utilisé.
 Les effets potentiels des anticholinergiques sur le système nerveux périphérique comprennent :
-Muqueuses
-une sécheresse des muqueuses au niveau nasal et pharyngé, ce qui entraîne une toux sèche ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Anticholinergique</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticholinergique</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Effets</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Muqueuses</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>une sécheresse des muqueuses au niveau nasal et pharyngé, ce qui entraîne une toux sèche ;
 une diminution de la production de salive ;
 diminution du péristaltisme intestinal, parfois iléus ;
 une diminution de la transpiration, la conséquence en est une baisse de la déperdition de chaleur par la peau, rendant la peau chaude et rouge ;
-une augmentation de la température corporelle.
-Oculaires et vision
-une mydriase (pupilles dilatées), ce qui entraîne une gêne à la lumière forte (photophobie) et un risque de glaucome aigu par fermeture de l'angle ;
+une augmentation de la température corporelle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anticholinergique</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticholinergique</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Effets</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Oculaires et vision</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>une mydriase (pupilles dilatées), ce qui entraîne une gêne à la lumière forte (photophobie) et un risque de glaucome aigu par fermeture de l'angle ;
 une baisse de l'accommodation visuelle (cycloplégie) ;
 vision double (diplopie) ;
-augmentation de la pression intraoculaire, ce qui est dangereux en cas de glaucome par fermeture de l'angle.
-Neurologiques et psychiatriques
-À court terme
-l'ataxie (manque de coordination).
+augmentation de la pression intraoculaire, ce qui est dangereux en cas de glaucome par fermeture de l'angle.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anticholinergique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticholinergique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Effets</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Neurologiques et psychiatriques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>À court terme</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>l'ataxie (manque de coordination).
 Les effets possibles sur le système nerveux central ressemblent à ceux associés au délirium et peuvent comprendre :
 euphorie / sensation de bien-être ;
 confusion ;
@@ -561,50 +681,162 @@
 ondulations,
 couleurs qui clignotent ou qui brillent,
 impression de voyager ou d'être dans un autre lieu ;
-parfois, coma.
-À long terme
-Les anticholinergiques sont associés à une augmentation de 50 % du risque de démence (+30 % pour les antidépresseurs et +70 % pour les neuroleptiques). Le lien de cause à effet est possible mais pas formellement démontré[1].
-Autres
-Augmentation de la fréquence cardiaque (tachycardie) et troubles du rythme cardiaque
+parfois, coma.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anticholinergique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticholinergique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Effets</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Neurologiques et psychiatriques</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>À long terme</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les anticholinergiques sont associés à une augmentation de 50 % du risque de démence (+30 % pour les antidépresseurs et +70 % pour les neuroleptiques). Le lien de cause à effet est possible mais pas formellement démontré.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anticholinergique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticholinergique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Effets</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Augmentation de la fréquence cardiaque (tachycardie) et troubles du rythme cardiaque
 Rétention urinaire
 Constipation.</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Anticholinergique</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anticholinergique</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anticholinergique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticholinergique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Sources végétales
-Parmi les plantes qui contiennent des alcaloïdes anticholinergiques, les plus courantes sont :
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Sources végétales</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Parmi les plantes qui contiennent des alcaloïdes anticholinergiques, les plus courantes sont :
 Atropa belladonna (belladone) ;
 Mandragora officinarum (mandragore) ;
 Hyoscamus niger (jusquiame noire) ;
-les espèces de Datura (Datura).
-Produits pharmaceutiques
-Antagonistes des récepteurs muscariniques
+les espèces de Datura (Datura).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anticholinergique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticholinergique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Produits</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Produits pharmaceutiques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Antagonistes des récepteurs muscariniques
 Alcaloïdes de la Belladonne
 Scopolamine (L-Hyoscine)
 Atropine (D/L-Hyoscyamine)
@@ -635,31 +867,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Anticholinergique</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anticholinergique</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Anticholinergique</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticholinergique</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Hypertrophie bénigne de la prostate
 Glaucome aigu par fermeture de l'angle (GAFA) non traité
@@ -668,31 +902,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Anticholinergique</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anticholinergique</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Anticholinergique</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticholinergique</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Indications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Traitement de fond de l'asthme et des bronchites chroniques obstructives.
 Traitement de l'asthme aigu grave en nébulisation avec un traitement bêta-2-mimétique.
